--- a/CIC-Bonding-Curves-Maize-Miller-Investor.xlsx
+++ b/CIC-Bonding-Curves-Maize-Miller-Investor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bnia\Projects\GrassEcon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22418C6-D022-4F43-87FB-B72688878DCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73223A2-8B18-4C84-9F0F-D58C09A762AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{9B82C4B2-F5F9-453E-973C-A0F2BE0F698F}"/>
   </bookViews>
@@ -1604,24 +1604,24 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$26:$F$26</c:f>
+              <c:f>Sheet1!$B$56:$F$56</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>58.6181640625</c:v>
+                  <c:v>58618.1640625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>68618.1640625</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>141.3818359375</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100</c:v>
+                  <c:v>68618.1640625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1687,24 +1687,24 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$27:$F$27</c:f>
+              <c:f>Sheet1!$B$57:$F$57</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>400</c:v>
+                  <c:v>400000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>350</c:v>
+                  <c:v>350000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>400</c:v>
+                  <c:v>364057.31757104269</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>436.1726155549614</c:v>
+                  <c:v>400000.00000000006</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>400</c:v>
+                  <c:v>385942.68242895737</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1765,7 +1765,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$28:$F$28</c:f>
+              <c:f>Sheet1!$B$58:$F$58</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1776,13 +1776,13 @@
                   <c:v>0.669921875</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0.75392704116279441</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.296567743095139</c:v>
+                  <c:v>0.99999999999999989</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0.71117466076202573</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3524,8 +3524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77D751D6-9164-4264-94DA-95D440F0116B}">
   <dimension ref="A1:R58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="O61" sqref="O61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
